--- a/Processed/Informal_road_avg_dropped_input.xlsx
+++ b/Processed/Informal_road_avg_dropped_input.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Infrastructure\Material composition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\TRIPI-GH-v100\Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6B1C7B1-472B-457D-817C-D0BDA0ED2E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFC1D0EB-151C-4838-92FF-87F5F1E89E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{120BBD4E-1CB5-4FA8-95CE-5D1EDEB34DA3}"/>
+    <workbookView xWindow="4260" yWindow="1365" windowWidth="14370" windowHeight="19110" xr2:uid="{120BBD4E-1CB5-4FA8-95CE-5D1EDEB34DA3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Material Intensities Rousseau" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -407,13 +407,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B104AD64-178D-4053-A6BB-678DF2DB90CA}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B86" sqref="A86:B86"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -453,7 +451,7 @@
         <v>137.43912164036601</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -473,7 +471,7 @@
         <v>83.166218143134003</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -493,7 +491,7 @@
         <v>66.090450331933198</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -513,7 +511,7 @@
         <v>60.363455560150797</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -533,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -557,7 +555,7 @@
         <v>30.181727780075398</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -581,7 +579,7 @@
         <v>30.181727780075398</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -605,7 +603,7 @@
         <v>30.181727780075398</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -629,7 +627,7 @@
         <v>30.181727780075398</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -653,7 +651,7 @@
         <v>30.181727780075398</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -677,7 +675,7 @@
         <v>30.181727780075398</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -701,7 +699,7 @@
         <v>30.181727780075398</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -721,7 +719,7 @@
         <v>30.1875</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -741,7 +739,7 @@
         <v>27.427499999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -761,7 +759,7 @@
         <v>23.677222222222198</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -781,7 +779,7 @@
         <v>20.9172222222222</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -801,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -825,7 +823,7 @@
         <v>10.4586111111111</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -849,7 +847,7 @@
         <v>10.4586111111111</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -873,7 +871,7 @@
         <v>10.4586111111111</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -897,7 +895,7 @@
         <v>10.4586111111111</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -921,7 +919,7 @@
         <v>10.4586111111111</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -945,7 +943,7 @@
         <v>10.4586111111111</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -969,7 +967,7 @@
         <v>10.4586111111111</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -989,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1009,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1029,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1049,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1069,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1093,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1117,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1141,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1165,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1189,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1213,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1237,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1257,7 +1255,7 @@
         <v>139.80166666666599</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1277,7 +1275,7 @@
         <v>31.792708333333302</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1297,7 +1295,7 @@
         <v>27.671875</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1317,7 +1315,7 @@
         <v>28.8697916666666</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1337,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -1361,7 +1359,7 @@
         <v>14.4348958333333</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>14.4348958333333</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1409,7 +1407,7 @@
         <v>14.4348958333333</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -1433,7 +1431,7 @@
         <v>14.4348958333333</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1457,7 +1455,7 @@
         <v>14.4348958333333</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -1481,7 +1479,7 @@
         <v>14.4348958333333</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -1505,7 +1503,7 @@
         <v>14.4348958333333</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1525,7 +1523,7 @@
         <v>60.388127853881201</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1545,7 +1543,7 @@
         <v>47.260273972602697</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5</v>
       </c>
@@ -1565,7 +1563,7 @@
         <v>36.315789473684198</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5</v>
       </c>
@@ -1585,7 +1583,7 @@
         <v>34.748201438848902</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
@@ -1605,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
@@ -1629,7 +1627,7 @@
         <v>17.374100719424451</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5</v>
       </c>
@@ -1653,7 +1651,7 @@
         <v>17.374100719424451</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -1677,7 +1675,7 @@
         <v>17.374100719424451</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
@@ -1701,7 +1699,7 @@
         <v>17.374100719424451</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5</v>
       </c>
@@ -1725,7 +1723,7 @@
         <v>17.374100719424451</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5</v>
       </c>
@@ -1749,7 +1747,7 @@
         <v>17.374100719424451</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5</v>
       </c>
@@ -1773,7 +1771,7 @@
         <v>17.374100719424451</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6</v>
       </c>
@@ -1793,7 +1791,7 @@
         <v>7.99399999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6</v>
       </c>
@@ -1813,7 +1811,7 @@
         <v>4.5679999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -1833,7 +1831,7 @@
         <v>2.2839999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6</v>
       </c>
@@ -1853,7 +1851,7 @@
         <v>2.2839999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6</v>
       </c>
@@ -1873,7 +1871,7 @@
         <v>29.692</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6</v>
       </c>
@@ -1897,7 +1895,7 @@
         <v>15.988</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6</v>
       </c>
@@ -1921,7 +1919,7 @@
         <v>15.988</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6</v>
       </c>
@@ -1945,7 +1943,7 @@
         <v>15.988</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6</v>
       </c>
@@ -1969,7 +1967,7 @@
         <v>15.988</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6</v>
       </c>
@@ -1993,7 +1991,7 @@
         <v>15.988</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6</v>
       </c>
@@ -2017,7 +2015,7 @@
         <v>15.988</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6</v>
       </c>
@@ -2041,7 +2039,7 @@
         <v>15.988</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7</v>
       </c>
@@ -2061,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7</v>
       </c>
@@ -2081,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7</v>
       </c>
@@ -2101,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7</v>
       </c>
@@ -2121,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7</v>
       </c>
@@ -2141,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7</v>
       </c>
@@ -2165,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7</v>
       </c>
@@ -2189,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7</v>
       </c>
@@ -2213,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>7</v>
       </c>
@@ -2237,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>7</v>
       </c>
@@ -2261,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>7</v>
       </c>
@@ -2285,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>7</v>
       </c>
